--- a/doc/ue_navgation.xlsx
+++ b/doc/ue_navgation.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0285F-88AE-4AE0-83BD-8B599AE66D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="初始化流程" sheetId="1" r:id="rId1"/>
+    <sheet name="数据" sheetId="2" r:id="rId2"/>
+    <sheet name="大世界的问题" sheetId="4" r:id="rId3"/>
+    <sheet name="流式关卡问题" sheetId="5" r:id="rId4"/>
+    <sheet name="NavMesh插入World的NavSystem" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>NavigationSystem</t>
   </si>
@@ -438,12 +442,180 @@
     <t>！！！此处会读取文件信息，构造寻路信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航讯息是存在于RecastNavMesh-Default里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在主关卡增加这个Actor，设置好寻路后，就包含了所有场景的，即使那些场景没加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是浪费内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有加载场景，都可以看出来，寻路信息其实都包含了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，场景的导航信息都是在加载World的时候通过创建Navigation，然后里面读取的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANavigationData是ARecastNavMesh的父类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主关卡和流式关卡都可以有自己的NavMeshBoundsVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载World的时候，在LoadPackage::EndLoad里面会进行主关卡的void ARecastNavMesh::Serialize( FArchive&amp; Ar )；会加载寻路数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在World::Init里面触发void ARecastNavMesh::PostLoad()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNavigationSystemV1也是相对于World来说的，其存在World身上，默认就是主关卡的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载流式关卡不会触发其设置到World的UNavigationSystemV1里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是相对于World的，一个World存在一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作的接口也都在UNavigationSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类就是ARecastNavMesh的基类而已，里面包含了所有的NAV数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMap&lt;FNavAgentProperties, TWeakObjectPtr&lt;ANavigationData&gt; &gt; AgentToNavDataMap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANavigationData* MainNavData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANavigationData* AbstractNavData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;ANavigationData*&gt; NavDataSet;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有MainNavData，则从这个列表里面找一个出来充当MainNavData，否则就MainNavData = GetWorld()-&gt;SpawnActor&lt;ANavigationData&gt;(ARecastNavMesh::StaticClass());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个就是从NavDataSet选出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认再带一个空的AAbstractNavData，有NAV的话，还会在创建一个自己的ARecastNavMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果场景没配置寻路，默认会创建一个空的AAbstractNavData，否则就会在创建一个ARecastNavMesh（包含默认的，最大不能超过16个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;ANavigationData*&gt; NavDataRegistrationQueue;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当流式关卡加载的时候，新的ARecastNavMesh::PostLoad()会将自己加入到World的NavDataRegistrationQueue中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景加载的时候，加载其Package的时候就会创建对应的NavMesh对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景Package加载完毕之后，在EndLoad函数里面就会反序列化NAVMESH的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用ARecastNavMesh::PostLoad()时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建NavigationSystem并设置到World的NavigationSystem对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建World默认的一个ANavigationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个World都有一个默认的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将默认的NavMesh加入到UNavigationSystemV1::NavDataRegistrationQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后将其防止在UNavigationSystemV1::NavDataSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载其Nav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流失关卡数据序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡ARecastNavMesh::PostLoad()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果NavConfig一样的话，就不会加入到NavDataSet里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本都是先获取对应的NavMesh，在通过NavMesh去查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以多场景的NavMesh怎么管理就是个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻路数据是存入了场景的umap里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +711,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,6 +772,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,6 +792,554 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2027443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5041C6FD-D610-D73A-8134-334063C65773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11344275" y="161925"/>
+          <a:ext cx="7790068" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1684543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFD99BE-15ED-4DD4-A998-4485BCC75B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="628650"/>
+          <a:ext cx="7790068" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236889</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D372C8-7725-27D5-4751-19CD081DB2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="5448300"/>
+          <a:ext cx="9885714" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>665633</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E998B064-C7E7-2009-1DF7-F998A1D615E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2790825"/>
+          <a:ext cx="8933333" cy="2609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFB8FC6-4709-3793-B7E8-6390E6A52845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1085851"/>
+          <a:ext cx="6543675" cy="3391694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129637</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12189EE6-693C-CC3A-7F49-9875D0C4647C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="4953000"/>
+          <a:ext cx="7711537" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6280</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598376</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6470A4E-9F04-5024-3766-5D78620EB4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4121080" y="9115424"/>
+          <a:ext cx="8821696" cy="3647373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>69260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F234B7-C6AF-96FF-046F-D11350284C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800601" y="13382625"/>
+          <a:ext cx="5810250" cy="2612435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664904</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>246140</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A172BA6-9340-D8D4-ABF5-69DE2EDD6F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4779704" y="16735425"/>
+          <a:ext cx="9868236" cy="4067176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9920</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940817AC-84F2-7F06-1A45-030E7E1AB968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810126" y="22336126"/>
+          <a:ext cx="5486794" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662184</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>74907</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>132570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640BBB92-AE9A-27EA-AB6A-8CEEC0DC9BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776984" y="26108025"/>
+          <a:ext cx="7642323" cy="4609320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>677751</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636859</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FF8916-9F3E-1BBD-34C1-CE61DE4E0EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4792551" y="31165801"/>
+          <a:ext cx="8188708" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,167 +1604,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="58.375" customWidth="1"/>
-    <col min="4" max="4" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
-    <col min="6" max="6" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="49.75" customWidth="1"/>
+    <col min="6" max="6" width="49.125" customWidth="1"/>
+    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="8" max="8" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="C7" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="D8" s="3" t="s">
+    <row r="12" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="D9" s="8" t="s">
+    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-      <c r="E13" s="3" t="s">
+    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-      <c r="E15" s="11" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+      <c r="F19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="5" t="s">
+      <c r="H20" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="12" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="F21" s="3" t="s">
+    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="5" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="E28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
+      <c r="E29" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="35" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="36" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+    <row r="42" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="43" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="44" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1040,159 +1819,204 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="58.25" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+    <row r="39" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C39" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="5" t="s">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="5"/>
-      <c r="D45" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="5"/>
+      <c r="E54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="5" t="s">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="13" t="s">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="8" t="s">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1200,5 +2024,195 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C079345A-C5E3-4F84-8250-6A88A58B8F40}">
+  <dimension ref="B8:M15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC58974-F0EA-4FE0-80E8-BC6BF7B5D7A6}">
+  <dimension ref="B3:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816B50A-6ED9-4A86-9EEF-30B9575D8B0A}">
+  <dimension ref="A5:B172"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_navgation.xlsx
+++ b/doc/ue_navgation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0285F-88AE-4AE0-83BD-8B599AE66D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D57193-8C2F-4B3D-8768-4092F66CB749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初始化流程" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="大世界的问题" sheetId="4" r:id="rId3"/>
     <sheet name="流式关卡问题" sheetId="5" r:id="rId4"/>
     <sheet name="NavMesh插入World的NavSystem" sheetId="6" r:id="rId5"/>
+    <sheet name="普通场景的数据存储" sheetId="8" r:id="rId6"/>
+    <sheet name="UE5世界分区-数据存储" sheetId="7" r:id="rId7"/>
+    <sheet name="UE5世界分区-数据记载" sheetId="9" r:id="rId8"/>
+    <sheet name="UE5世界分区-Level数据加入到navSys" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>NavigationSystem</t>
   </si>
@@ -608,6 +612,176 @@
   </si>
   <si>
     <t>寻路数据是存入了场景的umap里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPImplRecastNavMesh::Serialize( FArchive&amp; ArWrapped, int32 NavMeshVersion )</t>
+  </si>
+  <si>
+    <t>if (Ar.IsSaving())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (NavMeshOwner-&gt;bIsWorldPartitioned)</t>
+  </si>
+  <si>
+    <t>// Ignore (leave TilesToSave empty so no tiles are saved).</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNavigation, VeryVerbose, TEXT("%s Ar.IsSaving() no tiles are being saved because bIsWorldPartitioned=true in %s."), ANSI_TO_TCHAR(__FUNCTION__), *NavMeshOwner-&gt;GetFullName());</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…........</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是世界分区的话，单独做了处理！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Navmesh data are stored in ANavigationDataChunkActor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class NAVIGATIONSYSTEM_API URecastNavMeshDataChunk : public UNavigationDataChunk</t>
+  </si>
+  <si>
+    <t>if (RecastNavMeshImpl)</t>
+  </si>
+  <si>
+    <t>RecastNavMeshImpl-&gt;Serialize(Ar, InNavMeshVersion);</t>
+  </si>
+  <si>
+    <t>dtNavMesh* DetourNavMesh;</t>
+  </si>
+  <si>
+    <t>普通的场景，寻路数据就存在于NavMesh类里面的dtNavMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URecastNavMeshDataChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独生成的指令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnrealEditor-Win64-Debug.exe "F:\UEProject\UE5_Test002\UE5_Test002.uproject" "/Game/BigWorld/BigWorld2" -run=WorldPartitionBuilderCommandlet -AllowCommandletRendering -builder=WorldPartitionNavigationDataBuilder -SCCProvider=None</t>
+  </si>
+  <si>
+    <t>ULevel</t>
+  </si>
+  <si>
+    <t>每一个Level里面Actors都包含一个自己的NavigationDataChunk类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个在其ULevel::Serialize( FArchive&amp; Ar )里面就会被反序列化出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Level都有自己的所有Actors，这个里面就有一个寻路的数据类：NavigationDataChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UE5世界分区模式下，寻路数据的存储和之前不一样了，具体参照代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能通过指令生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当Level加入到World的Levels里面时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其对应的数据也会被添加到NavSystem里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存在于Level的Actors里面，类型是ANavigationDataChunkActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当CELL的Level被加载的时候，就将当前Level的寻路信息添加到系统的NavSys里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当CELL的Level被移除的时候，就将当前Level的寻路信息从系统寻路里移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据在这个Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANavigationDataChunkActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;TObjectPtr&lt;UNavigationDataChunk&gt;&gt; NavDataChunks;</t>
+  </si>
+  <si>
+    <t>数据数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终的派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是上面的URecastNavMeshDataChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class NAVIGATIONSYSTEM_API URecastNavMeshDataChunk : public UNavigationDataChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存放的基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNavigationDataChunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,6 +1516,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>617409</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>65837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E5C4B6-86BA-B476-DBEB-D242ACCEEB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="3676650"/>
+          <a:ext cx="13723809" cy="6704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>617492</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>113554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85CFB50-3707-F4C8-7C30-5F7E0C7F95C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="10791825"/>
+          <a:ext cx="13066667" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>427165</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>84755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE31AA3E-774B-1428-3BE8-C97BBB697B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="2457450"/>
+          <a:ext cx="11676190" cy="7761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274611</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F872DE2-FC13-7FF2-7C59-F649897AE92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="10267950"/>
+          <a:ext cx="12914286" cy="7000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531767</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>18304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870CE659-AC03-4C4E-9513-E28639575A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2009775"/>
+          <a:ext cx="13066667" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1607,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2215,4 +2624,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD031B45-0CB8-477B-B601-6D443F25A773}">
+  <dimension ref="B6:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2CE854-126B-4BAA-A016-122A75E90F08}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>4</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="9"/>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958CE2E-B840-4117-8298-5330B13237E5}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98C0BFA-2FE3-499D-9150-1BD849135FBF}">
+  <dimension ref="A5:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_navgation.xlsx
+++ b/doc/ue_navgation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D57193-8C2F-4B3D-8768-4092F66CB749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321869A2-97C4-4D9A-BE75-F69A38994D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="150">
   <si>
     <t>NavigationSystem</t>
   </si>
@@ -782,6 +782,14 @@
   </si>
   <si>
     <t>UNavigationDataChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UE5世界分区模式下，寻路的数据是存在CELL的Level里面的，每个CELL-Level被加载后，会将自己的寻路数据插入到World的NavSys里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,13 +1530,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>617409</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>65837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1566,13 +1574,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>617492</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>113554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2684,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2CE854-126B-4BAA-A016-122A75E90F08}">
-  <dimension ref="A3:L48"/>
+  <dimension ref="A3:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2695,204 +2703,212 @@
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="B3" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>3</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="9"/>
+      <c r="C40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="9"/>
+      <c r="C46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
         <v>132</v>
       </c>
     </row>
